--- a/data_supp/Database Area untuk Report.xlsx
+++ b/data_supp/Database Area untuk Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nutrifoodindonesia-my.sharepoint.com/personal/steven_nathanael_nutrifood_co_id/Documents/Documents/Python/Data/Master Data/MD min/data_supp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.nathanael\Documents\Python\Data\2. Master Data Git\data_supp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D64861DA-8B78-40DC-AC9E-B1536C2075E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D5F23F-993F-4EA6-9CEB-1728F8AF1E6F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7F9330-2B13-47AF-B594-FF0AEFA434FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CB92B276-28E0-4829-B796-ADBF995E2FE3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="122">
   <si>
     <t>City</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>Southeast Sulawesi</t>
+  </si>
+  <si>
+    <t>Jakarta Raya</t>
+  </si>
+  <si>
+    <t>Papua Province</t>
   </si>
 </sst>
 </file>
@@ -812,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904F3AA4-01F5-4399-A1EE-4BB38BAA3B9E}">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1686,6 +1692,22 @@
       </c>
       <c r="B108" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data_supp/Database Area untuk Report.xlsx
+++ b/data_supp/Database Area untuk Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.nathanael\Documents\Python\Data\2. Master Data Git\data_supp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7F9330-2B13-47AF-B594-FF0AEFA434FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CC534-82E0-4785-9AEF-FC5DBF0660B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CB92B276-28E0-4829-B796-ADBF995E2FE3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="124">
   <si>
     <t>City</t>
   </si>
@@ -405,13 +405,19 @@
   </si>
   <si>
     <t>Papua Province</t>
+  </si>
+  <si>
+    <t>Central Kalimantan Province</t>
+  </si>
+  <si>
+    <t>Gorontalo Province</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,19 +824,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904F3AA4-01F5-4399-A1EE-4BB38BAA3B9E}">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="27.08984375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -846,7 +852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -854,7 +860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -862,7 +868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
@@ -870,7 +876,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -878,7 +884,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
         <v>96</v>
       </c>
@@ -886,7 +892,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
         <v>108</v>
       </c>
@@ -894,7 +900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
         <v>111</v>
       </c>
@@ -902,7 +908,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -910,7 +916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -918,7 +924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -926,7 +932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -934,7 +940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -942,7 +948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -950,7 +956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -958,7 +964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -966,7 +972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
@@ -974,7 +980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -982,7 +988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
@@ -990,7 +996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="7" t="s">
         <v>19</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>64</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>80</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>73</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="8" t="s">
         <v>77</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
         <v>79</v>
       </c>
@@ -1166,7 +1172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
         <v>85</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
         <v>92</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
         <v>76</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
         <v>83</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
         <v>84</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="10" t="s">
         <v>88</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
         <v>98</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="10" t="s">
         <v>104</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
         <v>105</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
         <v>100</v>
       </c>
@@ -1334,7 +1340,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2">
       <c r="A70" s="5" t="s">
         <v>82</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2">
       <c r="A71" s="5" t="s">
         <v>87</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2">
       <c r="A72" s="5" t="s">
         <v>93</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2">
       <c r="A73" s="5" t="s">
         <v>99</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
         <v>102</v>
       </c>
@@ -1422,7 +1428,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2">
       <c r="A75" s="5" t="s">
         <v>107</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76" s="5" t="s">
         <v>110</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>47</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2">
       <c r="A83" s="5" t="s">
         <v>75</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2">
       <c r="A84" s="5" t="s">
         <v>81</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2">
       <c r="A85" s="5" t="s">
         <v>89</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2">
       <c r="A86" s="5" t="s">
         <v>90</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2">
       <c r="A87" s="5" t="s">
         <v>91</v>
       </c>
@@ -1526,7 +1532,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2">
       <c r="A88" s="5" t="s">
         <v>97</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2">
       <c r="A89" s="5" t="s">
         <v>103</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2">
       <c r="A90" s="5" t="s">
         <v>106</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>54</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2">
       <c r="A97" s="5" t="s">
         <v>86</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2">
       <c r="A98" s="5" t="s">
         <v>94</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2">
       <c r="A99" s="5" t="s">
         <v>95</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2">
       <c r="A100" s="5" t="s">
         <v>109</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2">
       <c r="A101" s="5" t="s">
         <v>112</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2">
       <c r="A102" s="5" t="s">
         <v>113</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2">
       <c r="A103" s="5" t="s">
         <v>114</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2">
       <c r="A104" s="5" t="s">
         <v>115</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2">
       <c r="A105" s="5" t="s">
         <v>116</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2">
       <c r="A106" s="5" t="s">
         <v>117</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2">
       <c r="A107" s="5" t="s">
         <v>118</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2">
       <c r="A108" s="5" t="s">
         <v>119</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2">
       <c r="A109" s="5" t="s">
         <v>120</v>
       </c>
@@ -1702,12 +1708,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2">
       <c r="A110" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B110" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1729,13 +1751,13 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="25.08984375" customWidth="1"/>
     <col min="6" max="6" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -1744,7 +1766,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1753,7 +1775,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1762,7 +1784,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1771,7 +1793,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1780,7 +1802,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1789,7 +1811,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1798,7 +1820,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1807,7 +1829,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1816,7 +1838,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1825,7 +1847,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1834,7 +1856,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1843,7 +1865,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1852,7 +1874,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1861,7 +1883,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1870,7 +1892,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1879,7 +1901,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1888,7 +1910,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1897,7 +1919,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1906,7 +1928,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1915,7 +1937,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1924,7 +1946,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1933,7 +1955,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1942,7 +1964,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1951,7 +1973,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1960,7 +1982,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1969,7 +1991,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1978,7 +2000,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1987,7 +2009,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1996,7 +2018,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2005,7 +2027,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2014,7 +2036,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2023,7 +2045,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2032,7 +2054,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2041,7 +2063,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2050,7 +2072,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2059,7 +2081,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>55</v>
       </c>

--- a/data_supp/Database Area untuk Report.xlsx
+++ b/data_supp/Database Area untuk Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.nathanael\Documents\Python\Data\2. Master Data Git\data_supp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CC534-82E0-4785-9AEF-FC5DBF0660B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3464DA6-3647-4CD9-92DF-5FDE786BACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CB92B276-28E0-4829-B796-ADBF995E2FE3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="127">
   <si>
     <t>City</t>
   </si>
@@ -411,13 +411,22 @@
   </si>
   <si>
     <t>Gorontalo Province</t>
+  </si>
+  <si>
+    <t>West Sulawesi Province</t>
+  </si>
+  <si>
+    <t>Riau islands</t>
+  </si>
+  <si>
+    <t>West Nusa Tenggara Province</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,7 +825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -824,19 +833,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904F3AA4-01F5-4399-A1EE-4BB38BAA3B9E}">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.08984375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -852,7 +861,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -860,7 +869,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -868,7 +877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
@@ -876,7 +885,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -884,7 +893,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>96</v>
       </c>
@@ -892,7 +901,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>108</v>
       </c>
@@ -900,7 +909,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>111</v>
       </c>
@@ -908,7 +917,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -916,7 +925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -924,7 +933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -932,7 +941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -940,7 +949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -948,7 +957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -956,7 +965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -964,7 +973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -972,7 +981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
@@ -980,7 +989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -988,7 +997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
@@ -996,7 +1005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
@@ -1004,7 +1013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
@@ -1012,7 +1021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>17</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>19</v>
       </c>
@@ -1036,7 +1045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1044,7 +1053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1052,7 +1061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1060,7 +1069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>64</v>
       </c>
@@ -1068,7 +1077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -1084,7 +1093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -1092,7 +1101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>80</v>
       </c>
@@ -1100,7 +1109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -1108,7 +1117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>73</v>
       </c>
@@ -1124,7 +1133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1148,7 +1157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>65</v>
       </c>
@@ -1156,7 +1165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>77</v>
       </c>
@@ -1164,7 +1173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>79</v>
       </c>
@@ -1172,7 +1181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>85</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>92</v>
       </c>
@@ -1188,7 +1197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -1196,7 +1205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -1204,7 +1213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>76</v>
       </c>
@@ -1212,7 +1221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -1228,7 +1237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -1236,7 +1245,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -1252,7 +1261,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>83</v>
       </c>
@@ -1260,7 +1269,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>84</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>88</v>
       </c>
@@ -1276,7 +1285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>98</v>
       </c>
@@ -1284,7 +1293,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>104</v>
       </c>
@@ -1292,7 +1301,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>105</v>
       </c>
@@ -1300,7 +1309,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -1308,7 +1317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -1316,7 +1325,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -1332,7 +1341,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>100</v>
       </c>
@@ -1340,7 +1349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -1364,7 +1373,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -1372,7 +1381,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -1380,7 +1389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -1388,7 +1397,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>82</v>
       </c>
@@ -1396,7 +1405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>87</v>
       </c>
@@ -1404,7 +1413,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>93</v>
       </c>
@@ -1412,7 +1421,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>99</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>102</v>
       </c>
@@ -1428,7 +1437,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>107</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>110</v>
       </c>
@@ -1444,7 +1453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -1452,7 +1461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -1468,7 +1477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>47</v>
       </c>
@@ -1476,7 +1485,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -1484,7 +1493,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>75</v>
       </c>
@@ -1500,7 +1509,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>81</v>
       </c>
@@ -1508,7 +1517,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>89</v>
       </c>
@@ -1516,7 +1525,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>90</v>
       </c>
@@ -1524,7 +1533,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>91</v>
       </c>
@@ -1532,7 +1541,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>97</v>
       </c>
@@ -1540,7 +1549,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>103</v>
       </c>
@@ -1548,7 +1557,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>106</v>
       </c>
@@ -1556,7 +1565,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -1564,7 +1573,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>27</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -1588,7 +1597,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -1596,7 +1605,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>54</v>
       </c>
@@ -1604,7 +1613,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>86</v>
       </c>
@@ -1612,7 +1621,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>94</v>
       </c>
@@ -1620,7 +1629,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>95</v>
       </c>
@@ -1628,7 +1637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>109</v>
       </c>
@@ -1636,7 +1645,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>112</v>
       </c>
@@ -1644,7 +1653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>113</v>
       </c>
@@ -1652,7 +1661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>114</v>
       </c>
@@ -1660,7 +1669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>115</v>
       </c>
@@ -1668,7 +1677,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>116</v>
       </c>
@@ -1676,7 +1685,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>117</v>
       </c>
@@ -1684,7 +1693,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>118</v>
       </c>
@@ -1692,7 +1701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>119</v>
       </c>
@@ -1700,7 +1709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>120</v>
       </c>
@@ -1708,7 +1717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>121</v>
       </c>
@@ -1716,7 +1725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>122</v>
       </c>
@@ -1724,12 +1733,36 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B112" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1751,13 +1784,13 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.08984375" customWidth="1"/>
     <col min="6" max="6" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -1766,7 +1799,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1775,7 +1808,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1784,7 +1817,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1793,7 +1826,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1802,7 +1835,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1811,7 +1844,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1820,7 +1853,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1829,7 +1862,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1838,7 +1871,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1847,7 +1880,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1856,7 +1889,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1865,7 +1898,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1874,7 +1907,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1883,7 +1916,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1892,7 +1925,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1901,7 +1934,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1910,7 +1943,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1919,7 +1952,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1928,7 +1961,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1937,7 +1970,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1946,7 +1979,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1955,7 +1988,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1964,7 +1997,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1973,7 +2006,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1982,7 +2015,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1991,7 +2024,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2000,7 +2033,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2009,7 +2042,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2018,7 +2051,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2027,7 +2060,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2036,7 +2069,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2045,7 +2078,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2054,7 +2087,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2063,7 +2096,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2072,7 +2105,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2081,7 +2114,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>55</v>
       </c>

--- a/data_supp/Database Area untuk Report.xlsx
+++ b/data_supp/Database Area untuk Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.nathanael\Documents\Python\Data\2. Master Data Git\data_supp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3464DA6-3647-4CD9-92DF-5FDE786BACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F4AEDE-8667-4CAF-ACDF-04513DE0F28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CB92B276-28E0-4829-B796-ADBF995E2FE3}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Maping Andra'!$A$1:$B$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="162">
   <si>
     <t>City</t>
   </si>
@@ -420,6 +420,111 @@
   </si>
   <si>
     <t>West Nusa Tenggara Province</t>
+  </si>
+  <si>
+    <t>Bogor</t>
+  </si>
+  <si>
+    <t>Bogor Regency</t>
+  </si>
+  <si>
+    <t>Kab. Tasikmalaya</t>
+  </si>
+  <si>
+    <t>Kabupaten Bandung</t>
+  </si>
+  <si>
+    <t>Kabupaten Banyumas</t>
+  </si>
+  <si>
+    <t>Kabupaten Karawang</t>
+  </si>
+  <si>
+    <t>Kabupaten Kudus</t>
+  </si>
+  <si>
+    <t>Kabupaten Ogan Komering Ilir</t>
+  </si>
+  <si>
+    <t>Kabupaten Semarang</t>
+  </si>
+  <si>
+    <t>Kota Balikpapan</t>
+  </si>
+  <si>
+    <t>Kota Bandung</t>
+  </si>
+  <si>
+    <t>Kota Batam</t>
+  </si>
+  <si>
+    <t>Kota Bks</t>
+  </si>
+  <si>
+    <t>Kota Jambi</t>
+  </si>
+  <si>
+    <t>Kota Jkt Utara</t>
+  </si>
+  <si>
+    <t>Kota Malang</t>
+  </si>
+  <si>
+    <t>Kota Pasuruan</t>
+  </si>
+  <si>
+    <t>Kota SBY</t>
+  </si>
+  <si>
+    <t>Kota Semarang</t>
+  </si>
+  <si>
+    <t>Kota Yogyakarta</t>
+  </si>
+  <si>
+    <t>Pasuruan</t>
+  </si>
+  <si>
+    <t>South Tangerang City</t>
+  </si>
+  <si>
+    <t>Tangerang</t>
+  </si>
+  <si>
+    <t>Tangerang Regency</t>
+  </si>
+  <si>
+    <t>West Bandung Regency</t>
+  </si>
+  <si>
+    <t>West Sulawesi</t>
+  </si>
+  <si>
+    <t>Sumatra Utara</t>
+  </si>
+  <si>
+    <t>Bangka Belitung Islands</t>
+  </si>
+  <si>
+    <t>Jawa Kulon</t>
+  </si>
+  <si>
+    <t>Jawa Wtan</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
 </sst>
 </file>
@@ -499,10 +604,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -510,15 +614,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,7 +927,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -833,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904F3AA4-01F5-4399-A1EE-4BB38BAA3B9E}">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,299 +956,299 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>43</v>
+      <c r="A5" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
+      <c r="A6" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>96</v>
+      <c r="A7" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>108</v>
+      <c r="A8" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>111</v>
+      <c r="A9" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
+      <c r="A10" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
+      <c r="A11" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
+      <c r="A12" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
+      <c r="A13" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
+      <c r="A14" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
+      <c r="A15" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
+      <c r="A16" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
+      <c r="A17" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>12</v>
+      <c r="A18" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>13</v>
+      <c r="A19" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>14</v>
+      <c r="A20" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>15</v>
+      <c r="A21" t="s">
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>16</v>
+      <c r="A22" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>17</v>
+      <c r="A23" t="s">
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>18</v>
+      <c r="A24" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>19</v>
+      <c r="A25" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>62</v>
+      <c r="A27" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>20</v>
+      <c r="A28" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>64</v>
+      <c r="A29" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>6</v>
+      <c r="A30" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>101</v>
-      </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>3</v>
+      <c r="A35" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>73</v>
+      <c r="A36" t="s">
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>78</v>
+      <c r="A37" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1158,152 +1260,152 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>65</v>
+      <c r="A40" t="s">
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
-        <v>77</v>
+      <c r="A41" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>79</v>
+      <c r="A42" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>85</v>
+      <c r="A43" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>92</v>
+      <c r="A44" t="s">
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>76</v>
+      <c r="A47" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>30</v>
+      <c r="A48" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>83</v>
+      <c r="A53" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>84</v>
+      <c r="A54" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
-        <v>88</v>
+      <c r="A55" t="s">
+        <v>30</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>98</v>
+      <c r="A56" t="s">
+        <v>31</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="10" t="s">
-        <v>104</v>
+      <c r="A57" t="s">
+        <v>32</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>105</v>
+      <c r="A58" t="s">
+        <v>33</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1311,464 +1413,744 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>100</v>
+      <c r="A63" t="s">
+        <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>48</v>
+      <c r="A65" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>50</v>
+      <c r="A67" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>51</v>
+      <c r="A68" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>52</v>
+      <c r="A69" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>82</v>
+      <c r="A70" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>87</v>
+      <c r="A71" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>93</v>
+      <c r="A72" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>99</v>
+      <c r="A73" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>102</v>
+      <c r="A74" t="s">
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>107</v>
+      <c r="A75" t="s">
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>110</v>
+      <c r="A76" t="s">
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>47</v>
+      <c r="A80" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>53</v>
+      <c r="A81" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
-        <v>75</v>
+      <c r="A83" t="s">
+        <v>37</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
-        <v>81</v>
+      <c r="A84" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>89</v>
+      <c r="A85" t="s">
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>90</v>
+      <c r="A86" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>91</v>
+      <c r="A87" t="s">
+        <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>97</v>
+      <c r="A88" t="s">
+        <v>40</v>
       </c>
       <c r="B88" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>103</v>
+      <c r="A89" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B95" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>35</v>
-      </c>
-      <c r="B94" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B96" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>86</v>
+      <c r="A97" t="s">
+        <v>42</v>
       </c>
       <c r="B97" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
-        <v>94</v>
+      <c r="A98" t="s">
+        <v>43</v>
       </c>
       <c r="B98" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
-        <v>95</v>
+      <c r="A99" t="s">
+        <v>44</v>
       </c>
       <c r="B99" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>109</v>
+      <c r="A100" t="s">
+        <v>45</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>112</v>
+      <c r="A101" t="s">
+        <v>46</v>
       </c>
       <c r="B101" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>113</v>
+      <c r="A102" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B107" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B103" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B110" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B105" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B106" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B107" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B109" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B110" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B111" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
-        <v>123</v>
+      <c r="A112" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B114" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>48</v>
+      </c>
+      <c r="B119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>49</v>
+      </c>
+      <c r="B120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>51</v>
+      </c>
+      <c r="B122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>52</v>
+      </c>
+      <c r="B123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>53</v>
+      </c>
+      <c r="B124" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>55</v>
+      </c>
+      <c r="B126" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B133" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B135" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B136" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B137" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B115" t="s">
-        <v>67</v>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B138" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B139" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>101</v>
+      </c>
+      <c r="B140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B57" xr:uid="{904F3AA4-01F5-4399-A1EE-4BB38BAA3B9E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
-      <sortCondition ref="B1:B57"/>
+  <autoFilter ref="A1:B54" xr:uid="{904F3AA4-01F5-4399-A1EE-4BB38BAA3B9E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B147">
+      <sortCondition ref="A1:A54"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1797,7 +2179,7 @@
       <c r="B1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1806,7 +2188,7 @@
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1815,7 +2197,7 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1824,7 +2206,7 @@
       <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1833,7 +2215,7 @@
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1842,7 +2224,7 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -1851,7 +2233,7 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -1860,7 +2242,7 @@
       <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1869,7 +2251,7 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1878,7 +2260,7 @@
       <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1887,7 +2269,7 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1896,7 +2278,7 @@
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1905,7 +2287,7 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1914,7 +2296,7 @@
       <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1923,7 +2305,7 @@
       <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1932,7 +2314,7 @@
       <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -1941,7 +2323,7 @@
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -1950,7 +2332,7 @@
       <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -1959,7 +2341,7 @@
       <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -1968,7 +2350,7 @@
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -1977,7 +2359,7 @@
       <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -1986,7 +2368,7 @@
       <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -1995,7 +2377,7 @@
       <c r="B23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -2004,7 +2386,7 @@
       <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -2013,7 +2395,7 @@
       <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
@@ -2022,7 +2404,7 @@
       <c r="B26" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -2031,7 +2413,7 @@
       <c r="B27" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -2040,7 +2422,7 @@
       <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -2049,7 +2431,7 @@
       <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -2058,7 +2440,7 @@
       <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -2067,7 +2449,7 @@
       <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
@@ -2076,7 +2458,7 @@
       <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -2085,7 +2467,7 @@
       <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
@@ -2094,7 +2476,7 @@
       <c r="B34" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
@@ -2103,7 +2485,7 @@
       <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -2112,7 +2494,7 @@
       <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
@@ -2121,7 +2503,7 @@
       <c r="B37" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B37" xr:uid="{EF49F5FB-851D-4391-9D5B-37B411523D04}">
